--- a/tools/excel/anssi/anssi-guide-hygiene-detail_new.xlsx
+++ b/tools/excel/anssi/anssi-guide-hygiene-detail_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C4470-47A1-FA47-A799-3FA269C47665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95977-BA32-C944-9AE6-2F0E4BB1D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <sheet name="urn_prefix_meta" sheetId="6" r:id="rId6"/>
     <sheet name="urn_prefix_content" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">mesures_content!$A$1:$H$260</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="588">
   <si>
     <t>type</t>
   </si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t>publication_date</t>
-  </si>
-  <si>
-    <t>2025-01-23 00:00:00</t>
   </si>
   <si>
     <t>ref_id</t>
@@ -291,9 +291,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Pour renforcer ces mesures, l’élaboration et la signature d’une charte des moyens informatiques précisant les règles et consignes que doivent respecter les utilisateurs peut être envisagée.</t>
-  </si>
-  <si>
     <t>1:DOC.INTERNAL_RULES</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>Vérifier que la procédure d'arrivée contient bien les actions de sensibilisation mentionnées dans la mesure n°2.</t>
   </si>
   <si>
-    <t>Les procédures doivent être formalisées et mises à jour en fonction du contexte.</t>
-  </si>
-  <si>
     <t>Vérifier l'exigence de revue des procédures RH et la régularité effective de leur mise à jour.</t>
   </si>
   <si>
@@ -537,9 +531,6 @@
   </si>
   <si>
     <t>Vérifier que les éventuelles dérogations sont accompagnées de mesures de sécurité adaptées (par exemple réseau Wi-Fi invité).</t>
-  </si>
-  <si>
-    <t>Ces aménagements peuvent être complétés par des mesures techniques telles que l’authentification des postes sur le réseau (par exemple à l’aide du standard 802.1X ou d’un équivalent).</t>
   </si>
   <si>
     <t>1:POL.NETWORK
@@ -587,9 +578,6 @@
 On pourra se référer au guide de l'ANSSI : https://cyber.gouv.fr/publications/recommandations-relatives-ladministration-securisee-des-si</t>
   </si>
   <si>
-    <t>Dès que possible la journalisation liée aux comptes (ex : relevé des connexions réussies/échouées) doit être activée.</t>
-  </si>
-  <si>
     <t>1:POL.MONITOR
 1:TECH.ACCESS_LOG
 1:TECH.EDR</t>
@@ -733,9 +721,6 @@
 Pour des équipements anciens qui ne sont plus maintenus par leur fabricant, on prévoiera leur décommissionnement et on les isolera dans une zone dédiée.</t>
   </si>
   <si>
-    <t>Afin de limiter les conséquences d’une compromission, il est par ailleurs essentiel, après changement des éléments d’authentification par défaut, de procéder à leur renouvellement régulier.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vérifier qu'il existe une procédure de rotation des mots de passe.
 </t>
   </si>
@@ -752,10 +737,6 @@
     <t>En 2025 cette préconisation s'impose pour les accès à des biens sensibles, et est recommandée partout.
 Vérifier que l'authentification forte est en place systématiquement pour l'accès aux biens sensibles, ou qu'à défaut l'authentification se fait par un bastion sans que l'utilisateur n'ai connaissance du mot de passe.
 Vérifier que les dérogations font l'objet d'un suivi spécifique.</t>
-  </si>
-  <si>
-    <t>Les cartes à puces doivent être privilégiées ou, à défaut, les mécanismes de mots de passe à usage unique (ou One Time Password) avec jeton physique. Les opérations cryptographiques mises en place dans ces deux facteurs offrent généralement de bonnes garanties de sécurité.
-Les cartes à puce peuvent être plus complexes à mettre en place car nécessitant une infrastructure de gestion des clés adaptée. Elles présentent cependant l’avantage d’être réutilisables à plusieurs fins : chiffrement, authentification de messagerie, authentification sur le poste de travail, etc.</t>
   </si>
   <si>
     <t>L'utilisation du smartphone comme authentifiant (application OTP ou application métier) s'avère en général plus pratique que la carte à puce. 
@@ -828,9 +809,6 @@
     <t>Vérifier le cloisonnement des équipements spécifiques non gérés.</t>
   </si>
   <si>
-    <t>Les données vitales au bon fonctionnement de l’entité que détiennent les postes utilisateurs et les serveurs doivent faire l’objet de sauvegardes régulières et stockées sur des équipements déconnectés, et leur restauration doit être vérifiée de manière périodique. En effet, de plus en plus de petites structures font l’objet d’attaques rendant ces données indisponibles (par exemple pour exiger en contrepartie de leur restitution le versement d’une somme conséquente (rançongiciel)).</t>
-  </si>
-  <si>
     <t>1:POL.BACKUP
 1:TECH.IMMUTABLE_BACKUP
 1:POL.BCP</t>
@@ -862,14 +840,8 @@
 On peut choisir un antivirus intégrant la gestion des ports USB.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sur les postes utilisateur, il est recommandé d’utiliser des solutions permettant d’interdire l’exécution de programmes sur les périphériques amovibles (par exemple Applocker sous Windows ou des options de montage noexec sous Unix). </t>
-  </si>
-  <si>
     <t>Vérifier que l'exécution depuis un support amovible est bloquée.
 On peut choisir un antivirus intégrant la gestion des ports USB.</t>
-  </si>
-  <si>
-    <t>Lors de la fin de vie des supports amovibles, il sera nécessaire d’implémenter et de respecter une procédure de mise au rebut stricte pouvant aller jusqu’à leur destruction sécurisée afin de limiter la fuite d’informations sensibles.</t>
   </si>
   <si>
     <t>1:PROC.DISPOSAL</t>
@@ -906,13 +878,7 @@
 Un EDR est également recommandé en 2025.</t>
   </si>
   <si>
-    <t>Le filtrage le plus simple consiste à bloquer l’accès aux ports d’administration par défaut des postes de travail (ports TCP 135, 445 et 3389 sous Windows, port TCP 22 sous Unix), excepté depuis les ressources explicitement identifiées (postes d’administration et d’assistance utilisateur, éventuels serveurs de gestion requérant l’accès à des partages réseau sur les postes, etc.).</t>
-  </si>
-  <si>
     <t>Vérifier que le pare-feu du poste de travail bloque les accès aux ports d'administration depuis un poste non spécifiquement autorisé.</t>
-  </si>
-  <si>
-    <t>Une analyse des flux entrants utiles (administration, logiciels d’infrastructure, applications particulières, etc.) doit être menée pour définir la liste des autorisations à configurer. Il est préférable de bloquer l’ensemble des flux par défaut et de n’autoriser que les services nécessaires depuis les équipements correspondants (« liste blanche »).</t>
   </si>
   <si>
     <t>1:DOC.FLOW_MATRIX</t>
@@ -920,9 +886,6 @@
   <si>
     <t>Vérifier l'existence d'une matrice de flux pour les postes de travail.
 Vérifier que le pare-feu du poste de travail prend en compte cette matrice de flux, en bloquant les flux non répertoriés.</t>
-  </si>
-  <si>
-    <t>Le pare-feu doit également être configuré pour journaliser les flux bloqués, et ainsi identifier les erreurs de configuration d’applications ou les tentatives d’intrusion.</t>
   </si>
   <si>
     <t>1:TECH.ENDPOINT_PROTECTION
@@ -1082,35 +1045,20 @@
 Certains firewalls intègrent un proxy Internet. Il est néanmoins recommandé d'utiliser des équipements distincts.</t>
   </si>
   <si>
-    <t>Des mécanismes complémentaires sur le serveur mandataire pourront être activés selon les besoins de l’entité : analyse antivirus du contenu, filtrage par catégories d’URLs, etc.</t>
-  </si>
-  <si>
     <t>Vérifier que la passerelle met en œuvre un antivirus.
 Vérifier que la passerelle met en œuvre un filtrage d'URLs (par catégorie, listes d'autorisation, …).</t>
   </si>
   <si>
-    <t xml:space="preserve">Le maintien en condition de sécurité des équipements de la passerelle est essentiel, il fera donc l’objet de procédures à respecter. </t>
-  </si>
-  <si>
     <t>1:POL.MAINTENANCE</t>
   </si>
   <si>
     <t>Vérifier que la procédure de maintenance couvre le maintien en conditions de sécurité du proxy et les équipements complémentaires éventuels (antivirus, filtrage d'URLs, …).</t>
   </si>
   <si>
-    <t xml:space="preserve">Suivant le nombre de collaborateurs et le besoin de disponibilité,  ces équipements pourront être redondés. </t>
-  </si>
-  <si>
     <t>Vérifier que la passerelle est redondée.</t>
   </si>
   <si>
-    <t>Par ailleurs, pour les terminaux utilisateurs, les résolutions DNS en direct de noms de domaines publics seront par défaut désactivées, celles-ci étant déléguées au serveur mandataire.</t>
-  </si>
-  <si>
     <t>Vérifier que les poste de travail n'ont pas accès à la résolution DNS des noms de domaine publics.</t>
-  </si>
-  <si>
-    <t>Enfin, il est fortement recommandé que les postes nomades établissent au préalable une connexion sécurisée au système d’information de l’entité pour naviguer de manière sécurisée sur le Web à travers la passerelle.</t>
   </si>
   <si>
     <t>1:TECH.VPN</t>
@@ -1197,9 +1145,6 @@
     <t>• de l’activation du chiffrement TLS des échanges entre serveurs de messagerie (de l’entité ou publics) ainsi qu’entre les postes utilisateur et les serveurs hébergeant les boîtes aux lettres.</t>
   </si>
   <si>
-    <t>Il est souhaitable de ne pas exposer directement les serveurs de boîte aux lettres sur Internet. Dans ce cas, un serveur relai dédié à l’envoi et à la réception des messages doit être mis en place en coupure d’Internet.</t>
-  </si>
-  <si>
     <t>1:TECH.MAIL_GATEWAY</t>
   </si>
   <si>
@@ -1207,16 +1152,10 @@
 Certains firewalls intègrent la fonction de passerelle de messagerie. Toutefois, il est préférable de séparer ces fonctions, et de mettre la passerelle de messagerie sécurisée dans une DMZ.</t>
   </si>
   <si>
-    <t>Alors que le spam - malveillant ou non - constitue la majorité des courriels échangés sur Internet, le déploiement d’un service anti-spam doit permettre d’éliminer cette source de risques.</t>
-  </si>
-  <si>
     <t>Vérifier la présence d'une capacité de filtrage anti-spam sur la messagerie Internet.
 Les passerelles de messagerie sécurisées intègrent une fonction anti-spam</t>
   </si>
   <si>
-    <t>Enfin, l’administrateur de messagerie s’assurera de la mise en place des mécanismes de vérification d’authenticité et de la bonne configuration des enregistrements DNS publics liés à son infrastructure de messagerie (MX, SPF, DKIM, DMARC).</t>
-  </si>
-  <si>
     <t>1:PROC.EMAIL_SECURITY</t>
   </si>
   <si>
@@ -1242,22 +1181,13 @@
 Vérifier que les flux échangés avec des partenaires sont filtrés par un pare-feu réseau conformément à la matrice de flux validée.</t>
   </si>
   <si>
-    <t>Pour des entités ayant des besoins de sécurité plus exigeants, il conviendra de s’assurer que l’équipement de filtrage IP pour les connexions partenaires est dédié à cet usage.</t>
-  </si>
-  <si>
     <t>Vérifier que le pare-feu pour les flux échangés avec des partenaires est dédié à cet usage.</t>
   </si>
   <si>
-    <t>L’ajout d’un équipement de détection d’intrusions peut également constituer une bonne pratique.</t>
-  </si>
-  <si>
     <t>1:TECH.IDS</t>
   </si>
   <si>
     <t>Vérifier la présence d'un IDS/IPS surveillant les flux échangés avec des partenaires.</t>
-  </si>
-  <si>
-    <t>Par ailleurs la connaissance d’un point de contact à jour chez le partenaire est nécessaire pour pouvoir réagir en cas d’incident de sécurité.</t>
   </si>
   <si>
     <t>1:PROC.INCIDENT</t>
@@ -1338,9 +1268,6 @@
     <t>Vérifier que les administrateurs ont soit un deuxième terminal pour leurs tâches bureautiques, soit un accès depuis leur poste d'administration à un poste virtuel.</t>
   </si>
   <si>
-    <t>Concernant les mises à jour logicielles des équipements administrés, elles doivent être récupérées depuis une source sûre (le site de l’éditeur par exemple), contrôlées puis transférées sur le poste ou le serveur utilisé pour l’administration et non connecté à Internet.</t>
-  </si>
-  <si>
     <t>1:PROC.UPDATE</t>
   </si>
   <si>
@@ -1349,13 +1276,7 @@
 - sont signées cryptographiquement et que cette signature est contrôlé.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ce transfert peut être réalisé sur un support amovible dédié. </t>
-  </si>
-  <si>
     <t>Vérifier que ce processus dérogatoire est correctement documenté. Il s'agit d'une exception légitime au blocage USB.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour des entités voulant automatiser certaines tâches, la mise en place d’une zone d’échanges est conseillée. </t>
   </si>
   <si>
     <t>Vérifier la présence d'une zone d'échanges sécurisée.</t>
@@ -1373,9 +1294,6 @@
   </si>
   <si>
     <t>Selon les besoins de sécurité de l’entité, il est recommandé :</t>
-  </si>
-  <si>
-    <t>• de privilégier en premier lieu un cloisonnement physique des réseaux dès que cela est possible, cette solution pouvant représenter des coûts et un temps de déploiement importants;</t>
   </si>
   <si>
     <t>Vérifier que le réseau d'administration est physiquement cloisonné.</t>
@@ -1453,9 +1371,6 @@
   </si>
   <si>
     <t>Vérifier que les postes nomades disposent d'un filtre de confidentialité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfin, afin de rendre inutilisable le poste seul, l’utilisation d’un support externe complémentaire (carte à puce ou jeton USB par exemple) pour conserver des secrets de déchiffrement ou d’authentification peut être envisagée. Dans ce cas il doit être conservé à part. </t>
   </si>
   <si>
     <t>Vérifier que les postes nomades sont chiffrés avec une clé de chiffrement dont la mise en œuvre nécessite un dispositif externe (clé USB, carte à puce, …).</t>
@@ -1526,9 +1441,6 @@
 Cette fonction est intégrée dans les logiciels VPN les plus courants.</t>
   </si>
   <si>
-    <t xml:space="preserve">Afin d’éviter toute réutilisation d’authentifiants depuis un poste volé ou perdu (identifiant et mot de passe enregistrés par exemple), il est préférable d’avoir recours à une authentification forte, par exemple avec un mot de passe et un certificat stocké sur un support externe (carte à puce ou jeton USB) ou un mécanisme de mot de passe à usage unique (One Time Password). </t>
-  </si>
-  <si>
     <t>1:TECH.MFA</t>
   </si>
   <si>
@@ -1563,9 +1475,6 @@
     <t>Dans le cas contraire, une configuration préalable avant remise de l’équipement et une séance de sensibilisation des utilisateurs est souhaitable.</t>
   </si>
   <si>
-    <t>Entre autres usages potentiellement risqués, celui d’un assistant vocal intégré augmente sensiblement la surface d’attaque du terminal et des cas d’attaque ont été démontrés. Pour ces raisons, il est donc déconseillé.</t>
-  </si>
-  <si>
     <t>1:POL.WORK
 1:TECH.UEM</t>
   </si>
@@ -1778,9 +1687,6 @@
     <t>Vérifier que l'ensemble du SI met en œuvre une politique de synchornisation des horloges (protocole NTP).</t>
   </si>
   <si>
-    <t xml:space="preserve">Si toutes les actions précédentes ont été mises en œuvre, une centralisation des journaux sur un dispositif dédié pourra être envisagée. Cela permet de faciliter la recherche automatisée d’événements suspects, d’archiver les journaux sur une longue durée et d’empêcher un attaquant d’effacer d’éventuelles traces de son passage sur les équipements qu’il a compromis. </t>
-  </si>
-  <si>
     <t>1:TECH.SIEM</t>
   </si>
   <si>
@@ -1852,9 +1758,6 @@
     <t>Vérifier que la procédure de restauration détaille comment faire une restauration globale.</t>
   </si>
   <si>
-    <t>Un fois cette politique de sauvegarde établie, il est souhaitable de planifier au moins une fois par an un exercice de restauration des données et de conserver une trace technique des résultats.</t>
-  </si>
-  <si>
     <t>Vérifier qu'un test de restauration globale est fait régulièrement, au moins une fois par an.
 On pourra faire les tests de restauration dans une zone virtuelle dédiée.
 Vérifier que les résultats de ces tests de restauration globale sont bien consignés.</t>
@@ -1866,16 +1769,10 @@
     <t>Procéder à des contrôles et audits de sécurité réguliers puis appliquer les actions correctives associées (renforcé)</t>
   </si>
   <si>
-    <t>La réalisation d’audits réguliers (au moins une fois par an) du système d’information est essentielle car elle permet d’évaluer concrètement l’efficacité des mesures mises en œuvre et leur maintien dans le temps. Ces contrôles et audits permettent également de mesurer les écarts pouvant persister entre la règle et la pratique.</t>
-  </si>
-  <si>
     <t>1:POL.AUDIT</t>
   </si>
   <si>
     <t>Vérifier l'existence d'une politique d'audit.</t>
-  </si>
-  <si>
-    <t>Ils peuvent être réalisés par d’éventuelles équipes d’audit internes ou par des sociétés externes spécialisées. Selon le périmètre à contrôler, des audits techniques et/ou organisationnels seront effectués par les professionnels mobilisés. Ces audits sont d’autant plus nécessaires que l’entité doit être conforme à des réglementations et obligations légales directement liées à ses activités.</t>
   </si>
   <si>
     <t>1:DOC.AUDIT_PLAN</t>
@@ -1886,17 +1783,11 @@
 Vérifier que les exigences d'audit pouvant découler des réglementations et obligations légales sont prises en compte.</t>
   </si>
   <si>
-    <t xml:space="preserve">À l’issue de ces audits, des actions correctives doivent être identifiées, leur application planifiée et des points de suivi organisés à intervalles réguliers. Pour une plus grande efficacité, des indicateurs sur l’état d’avancement du plan d’action pourront être intégrés dans un tableau de bord à l’adresse de la direction. </t>
-  </si>
-  <si>
     <t>1:DOC.NC_LOG</t>
   </si>
   <si>
     <t xml:space="preserve">Vérifier que les actions correctives identifiées lors des audits sont planifiées et suivies.
 Vérifier que des indicateurs sur l’état d’avancement du plan d’action sont intégrés dans un tableau de bord à l’adresse de la direction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si les audits de sécurité participent à la sécurité du système d’information en permettant de mettre en évidence d’éventuelles vulnérabilités, ils ne constituent jamais une preuve de leur absence et ne dispensent donc pas d’autres mesures de contrôle. </t>
   </si>
   <si>
     <t>1:POL.MAIN</t>
@@ -2004,71 +1895,180 @@
     <t>Mener une analyse de risques formelle (renforcé)</t>
   </si>
   <si>
-    <t>Chaque entité évolue dans un environnement informationnel complexe qui lui est propre. Aussi, toute prise de position ou plan d’action impliquant la sécurité du système d’information doit être considéré à la lumière des risques pressentis par la direction. En effet, qu’il s’agisse de mesures organisationnelles ou techniques, leur mise en œuvre représente un coût pour l’entité qui nécessite de s’assurer qu’elles permettent de réduire au bon niveau un risque identifié.
+    <t>1:POL.RISK</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité prévoit la démarche d'analyse des risques de cybersécurité conformes aux principes ISO 27005.
+Vérifier que des analyses de risques sont menées.</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en place d'audits de conformité selon un standard de cybersécurité.
+Vérifier la mise en place d'analyses de risques prenant en compte les retours d'expérience des utilisateurs.
+Vérifier la mise en œuvre d'études de type EBIOS-RM.</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Privilégier l’usage de produits et de services qualifiés par l'ANSSI (renforcé)</t>
+  </si>
+  <si>
+    <t>Vérifier que la politique de sécurité prévoit de privilégier le recours à des produits qualifiés par l'ANSSI.
+Vérifier que la politique de sécurité prévoit de privilégier le recours à des prestataires qualifiés par l'ANSSI (PACS, PASSI, PRIS, PDIS, SecNumCloud, PAMS).</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>renforcé</t>
+  </si>
+  <si>
+    <t>urn_prefix</t>
+  </si>
+  <si>
+    <t>prefix_id</t>
+  </si>
+  <si>
+    <t>prefix_value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>urn:intuitem:risk:function:doc-pol</t>
+  </si>
+  <si>
+    <t>[R] Pour renforcer ces mesures, l’élaboration et la signature d’une charte des moyens informatiques précisant les règles et consignes que doivent respecter les utilisateurs peut être envisagée.</t>
+  </si>
+  <si>
+    <t>[R] Les procédures doivent être formalisées et mises à jour en fonction du contexte.</t>
+  </si>
+  <si>
+    <t>[R] Ces aménagements peuvent être complétés par des mesures techniques telles que l’authentification des postes sur le réseau (par exemple à l’aide du standard 802.1X ou d’un équivalent).</t>
+  </si>
+  <si>
+    <t>[R] Dès que possible la journalisation liée aux comptes (ex : relevé des connexions réussies/échouées) doit être activée.</t>
+  </si>
+  <si>
+    <t>[R] Afin de limiter les conséquences d’une compromission, il est par ailleurs essentiel, après changement des éléments d’authentification par défaut, de procéder à leur renouvellement régulier.</t>
+  </si>
+  <si>
+    <t>[R] Les cartes à puces doivent être privilégiées ou, à défaut, les mécanismes de mots de passe à usage unique (ou One Time Password) avec jeton physique. Les opérations cryptographiques mises en place dans ces deux facteurs offrent généralement de bonnes garanties de sécurité.
+Les cartes à puce peuvent être plus complexes à mettre en place car nécessitant une infrastructure de gestion des clés adaptée. Elles présentent cependant l’avantage d’être réutilisables à plusieurs fins : chiffrement, authentification de messagerie, authentification sur le poste de travail, etc.</t>
+  </si>
+  <si>
+    <t>[R] Les données vitales au bon fonctionnement de l’entité que détiennent les postes utilisateurs et les serveurs doivent faire l’objet de sauvegardes régulières et stockées sur des équipements déconnectés, et leur restauration doit être vérifiée de manière périodique. En effet, de plus en plus de petites structures font l’objet d’attaques rendant ces données indisponibles (par exemple pour exiger en contrepartie de leur restitution le versement d’une somme conséquente (rançongiciel)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Sur les postes utilisateur, il est recommandé d’utiliser des solutions permettant d’interdire l’exécution de programmes sur les périphériques amovibles (par exemple Applocker sous Windows ou des options de montage noexec sous Unix). </t>
+  </si>
+  <si>
+    <t>[R] Lors de la fin de vie des supports amovibles, il sera nécessaire d’implémenter et de respecter une procédure de mise au rebut stricte pouvant aller jusqu’à leur destruction sécurisée afin de limiter la fuite d’informations sensibles.</t>
+  </si>
+  <si>
+    <t>[R] Le filtrage le plus simple consiste à bloquer l’accès aux ports d’administration par défaut des postes de travail (ports TCP 135, 445 et 3389 sous Windows, port TCP 22 sous Unix), excepté depuis les ressources explicitement identifiées (postes d’administration et d’assistance utilisateur, éventuels serveurs de gestion requérant l’accès à des partages réseau sur les postes, etc.).</t>
+  </si>
+  <si>
+    <t>[R] Une analyse des flux entrants utiles (administration, logiciels d’infrastructure, applications particulières, etc.) doit être menée pour définir la liste des autorisations à configurer. Il est préférable de bloquer l’ensemble des flux par défaut et de n’autoriser que les services nécessaires depuis les équipements correspondants (« liste blanche »).</t>
+  </si>
+  <si>
+    <t>[R] Le pare-feu doit également être configuré pour journaliser les flux bloqués, et ainsi identifier les erreurs de configuration d’applications ou les tentatives d’intrusion.</t>
+  </si>
+  <si>
+    <t>[R] Des mécanismes complémentaires sur le serveur mandataire pourront être activés selon les besoins de l’entité : analyse antivirus du contenu, filtrage par catégories d’URLs, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Le maintien en condition de sécurité des équipements de la passerelle est essentiel, il fera donc l’objet de procédures à respecter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Suivant le nombre de collaborateurs et le besoin de disponibilité,  ces équipements pourront être redondés. </t>
+  </si>
+  <si>
+    <t>[R] Par ailleurs, pour les terminaux utilisateurs, les résolutions DNS en direct de noms de domaines publics seront par défaut désactivées, celles-ci étant déléguées au serveur mandataire.</t>
+  </si>
+  <si>
+    <t>[R] Enfin, il est fortement recommandé que les postes nomades établissent au préalable une connexion sécurisée au système d’information de l’entité pour naviguer de manière sécurisée sur le Web à travers la passerelle.</t>
+  </si>
+  <si>
+    <t>[R] Il est souhaitable de ne pas exposer directement les serveurs de boîte aux lettres sur Internet. Dans ce cas, un serveur relai dédié à l’envoi et à la réception des messages doit être mis en place en coupure d’Internet.</t>
+  </si>
+  <si>
+    <t>[R] Alors que le spam - malveillant ou non - constitue la majorité des courriels échangés sur Internet, le déploiement d’un service anti-spam doit permettre d’éliminer cette source de risques.</t>
+  </si>
+  <si>
+    <t>[R] Enfin, l’administrateur de messagerie s’assurera de la mise en place des mécanismes de vérification d’authenticité et de la bonne configuration des enregistrements DNS publics liés à son infrastructure de messagerie (MX, SPF, DKIM, DMARC).</t>
+  </si>
+  <si>
+    <t>[R] Pour des entités ayant des besoins de sécurité plus exigeants, il conviendra de s’assurer que l’équipement de filtrage IP pour les connexions partenaires est dédié à cet usage.</t>
+  </si>
+  <si>
+    <t>[R] L’ajout d’un équipement de détection d’intrusions peut également constituer une bonne pratique.</t>
+  </si>
+  <si>
+    <t>[R] Par ailleurs la connaissance d’un point de contact à jour chez le partenaire est nécessaire pour pouvoir réagir en cas d’incident de sécurité.</t>
+  </si>
+  <si>
+    <t>[R] Concernant les mises à jour logicielles des équipements administrés, elles doivent être récupérées depuis une source sûre (le site de l’éditeur par exemple), contrôlées puis transférées sur le poste ou le serveur utilisé pour l’administration et non connecté à Internet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Ce transfert peut être réalisé sur un support amovible dédié. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Pour des entités voulant automatiser certaines tâches, la mise en place d’une zone d’échanges est conseillée. </t>
+  </si>
+  <si>
+    <t>• [R] de privilégier en premier lieu un cloisonnement physique des réseaux dès que cela est possible, cette solution pouvant représenter des coûts et un temps de déploiement importants;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Enfin, afin de rendre inutilisable le poste seul, l’utilisation d’un support externe complémentaire (carte à puce ou jeton USB par exemple) pour conserver des secrets de déchiffrement ou d’authentification peut être envisagée. Dans ce cas il doit être conservé à part. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Afin d’éviter toute réutilisation d’authentifiants depuis un poste volé ou perdu (identifiant et mot de passe enregistrés par exemple), il est préférable d’avoir recours à une authentification forte, par exemple avec un mot de passe et un certificat stocké sur un support externe (carte à puce ou jeton USB) ou un mécanisme de mot de passe à usage unique (One Time Password). </t>
+  </si>
+  <si>
+    <t>[R] Entre autres usages potentiellement risqués, celui d’un assistant vocal intégré augmente sensiblement la surface d’attaque du terminal et des cas d’attaque ont été démontrés. Pour ces raisons, il est donc déconseillé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Si toutes les actions précédentes ont été mises en œuvre, une centralisation des journaux sur un dispositif dédié pourra être envisagée. Cela permet de faciliter la recherche automatisée d’événements suspects, d’archiver les journaux sur une longue durée et d’empêcher un attaquant d’effacer d’éventuelles traces de son passage sur les équipements qu’il a compromis. </t>
+  </si>
+  <si>
+    <t>[R] Un fois cette politique de sauvegarde établie, il est souhaitable de planifier au moins une fois par an un exercice de restauration des données et de conserver une trace technique des résultats.</t>
+  </si>
+  <si>
+    <t>[R] La réalisation d’audits réguliers (au moins une fois par an) du système d’information est essentielle car elle permet d’évaluer concrètement l’efficacité des mesures mises en œuvre et leur maintien dans le temps. Ces contrôles et audits permettent également de mesurer les écarts pouvant persister entre la règle et la pratique.</t>
+  </si>
+  <si>
+    <t>[R] Ils peuvent être réalisés par d’éventuelles équipes d’audit internes ou par des sociétés externes spécialisées. Selon le périmètre à contrôler, des audits techniques et/ou organisationnels seront effectués par les professionnels mobilisés. Ces audits sont d’autant plus nécessaires que l’entité doit être conforme à des réglementations et obligations légales directement liées à ses activités.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] À l’issue de ces audits, des actions correctives doivent être identifiées, leur application planifiée et des points de suivi organisés à intervalles réguliers. Pour une plus grande efficacité, des indicateurs sur l’état d’avancement du plan d’action pourront être intégrés dans un tableau de bord à l’adresse de la direction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R] Si les audits de sécurité participent à la sécurité du système d’information en permettant de mettre en évidence d’éventuelles vulnérabilités, ils ne constituent jamais une preuve de leur absence et ne dispensent donc pas d’autres mesures de contrôle. </t>
+  </si>
+  <si>
+    <t>[R] Chaque entité évolue dans un environnement informationnel complexe qui lui est propre. Aussi, toute prise de position ou plan d’action impliquant la sécurité du système d’information doit être considéré à la lumière des risques pressentis par la direction. En effet, qu’il s’agisse de mesures organisationnelles ou techniques, leur mise en œuvre représente un coût pour l’entité qui nécessite de s’assurer qu’elles permettent de réduire au bon niveau un risque identifié.
 Dans les cas les plus sensibles, l’analyse de risque peut remettre en cause certains choix passés. Ce peut notamment être le cas si la probabilité d’apparition d’un événement et ses conséquences potentielles s’avèrent critiques pour l’entité et qu’il n’existe aucune action préventive pour le maîtriser.
 La démarche recommandée consiste, dans les grandes lignes, à définir le contexte, apprécier les risques et les traiter. L’évaluation de ces risques s’opère généralement selon deux axes : leur probabilité d’apparition et leur gravité. S’ensuit l’élaboration d’un plan de traitement du risque  à faire valider par une autorité désignée à plus haut niveau.</t>
   </si>
   <si>
-    <t>1:POL.RISK</t>
-  </si>
-  <si>
-    <t>Vérifier que la politique de sécurité prévoit la démarche d'analyse des risques de cybersécurité conformes aux principes ISO 27005.
-Vérifier que des analyses de risques sont menées.</t>
-  </si>
-  <si>
-    <t>Trois types d’approches peuvent être envisagés pour maîtriser les risques associés à son système d’information :
+    <t>[R] Trois types d’approches peuvent être envisagés pour maîtriser les risques associés à son système d’information :
 •  le recours aux bonnes pratiques de sécurité informatique ;
 • une analyse de risques systématique fondée sur les retours d’expérience des utilisateurs ;
 •  une gestion structurée des risques formalisée par une méthodologie dédiée.
 Dans ce dernier cas, la méthode EBIOS référencée par l’ANSSI est recommandée. Elle permet d’exprimer les besoins de sécurité, d’identifier les objectifs de sécurité et de déterminer les exigences de sécurité.</t>
   </si>
   <si>
-    <t>Vérifier la mise en place d'audits de conformité selon un standard de cybersécurité.
-Vérifier la mise en place d'analyses de risques prenant en compte les retours d'expérience des utilisateurs.
-Vérifier la mise en œuvre d'études de type EBIOS-RM.</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Privilégier l’usage de produits et de services qualifiés par l'ANSSI (renforcé)</t>
-  </si>
-  <si>
-    <t>La qualification prononcée par l’ANSSI offre des garanties de sécurité et de confiance aux acheteurs de solutions listées dans les catalogues de produits et de prestataires de service qualifiés que publie l’agence.
+    <t>[R] La qualification prononcée par l’ANSSI offre des garanties de sécurité et de confiance aux acheteurs de solutions listées dans les catalogues de produits et de prestataires de service qualifiés que publie l’agence.
 Au-delà des entités soumises à réglementation, l’ANSSI encourage plus généralement l’ensemble des entreprises et administrations françaises à utiliser des produits qu’elle qualifie, seul gage d’une étude sérieuse et approfondie du fonctionnement technique de la solution et de son écosystème.
 S’agissant des prestataires de service qualifiés, ce label permet de répondre aux enjeux et projets de cybersécurité pour l’ensemble du tissu économique français que l’ANSSI ne saurait adresser seule. Évalués sur des critères techniques et organisationnels, les prestataires qualifiés couvrent l’essentiel des métiers de la sécurité des systèmes d’information. Ainsi, en fonction de ses besoins et du maillage national, une entité pourra faire appel à un Prestataire d’audit de la sécurité des systèmes d’information (PASSI), un Prestataire de réponse aux incidents de sécurité (PRIS), un Prestataire de détection des incidents de sécurité (PDIS) ou à un prestataire de service d’informatique en nuage (SecNumCloud).</t>
-  </si>
-  <si>
-    <t>Vérifier que la politique de sécurité prévoit de privilégier le recours à des produits qualifiés par l'ANSSI.
-Vérifier que la politique de sécurité prévoit de privilégier le recours à des prestataires qualifiés par l'ANSSI (PACS, PASSI, PRIS, PDIS, SecNumCloud, PAMS).</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>renforcé</t>
-  </si>
-  <si>
-    <t>urn_prefix</t>
-  </si>
-  <si>
-    <t>prefix_id</t>
-  </si>
-  <si>
-    <t>prefix_value</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>urn:intuitem:risk:function:doc-pol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2094,6 +2094,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2141,63 +2149,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2502,11 +2514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2544,64 +2559,64 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="21">
+        <v>45881</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2622,15 +2637,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,39 +2653,39 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2680,10 +2695,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170:E171"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2698,3096 +2714,3040 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>1</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7">
         <v>2</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="8">
         <v>4</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <v>2</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="11">
         <v>5</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <v>2</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="11">
         <v>6</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1">
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1">
         <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>550</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <v>2</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="11">
         <v>7</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="1">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="3" t="s">
+    <row r="53" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <v>2</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="11">
         <v>8</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="1" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="1">
-        <v>3</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="187" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" s="1">
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>164</v>
+        <v>77</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>552</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <v>2</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C61" s="10"/>
       <c r="D61" s="11">
         <v>9</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="1">
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H65" s="1" t="s">
+    </row>
+    <row r="68" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="1">
-        <v>3</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="1">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="1">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <v>2</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="11">
         <v>10</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="1">
         <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1">
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B73" s="1">
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1">
         <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10">
         <v>2</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="11">
         <v>11</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="1">
-        <v>3</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10">
         <v>2</v>
       </c>
-      <c r="C79" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="C79" s="18"/>
       <c r="D79" s="11">
         <v>12</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B80" s="1">
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B81" s="1">
         <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1">
         <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>208</v>
+        <v>77</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>553</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10">
         <v>2</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="C83" s="18"/>
       <c r="D83" s="11">
         <v>13</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>213</v>
+        <v>77</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>554</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" s="4">
         <v>1</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10">
         <v>2</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="11">
         <v>14</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B88" s="1">
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" s="1">
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" s="1">
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>234</v>
+        <v>77</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>555</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" s="10">
         <v>2</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C95" s="10"/>
       <c r="D95" s="11">
         <v>15</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>243</v>
+        <v>77</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>556</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>245</v>
+        <v>77</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>557</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
         <v>2</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C100" s="10"/>
       <c r="D100" s="11">
         <v>16</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="255" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
         <v>2</v>
       </c>
-      <c r="C102" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="C102" s="18"/>
       <c r="D102" s="11">
         <v>17</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>254</v>
+        <v>77</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>558</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B105" s="1">
         <v>3</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>559</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>259</v>
+        <v>77</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>560</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
         <v>2</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C107" s="10"/>
       <c r="D107" s="11">
         <v>18</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109" s="1">
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" s="4">
         <v>1</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10">
         <v>2</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C111" s="10"/>
       <c r="D111" s="11">
         <v>19</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="153" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" s="1">
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B114" s="1">
         <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" s="10">
         <v>2</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C115" s="10"/>
       <c r="D115" s="11">
         <v>20</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G116" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="14">
+        <v>3</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="14">
+        <v>3</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117" s="1">
-        <v>3</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A118" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B118" s="14">
-        <v>3</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A119" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" s="14">
-        <v>3</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="G119" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
         <v>2</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C121" s="10"/>
       <c r="D121" s="11">
         <v>21</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="204" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" s="10">
         <v>2</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C123" s="10"/>
       <c r="D123" s="11">
         <v>22</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>301</v>
+        <v>77</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>561</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>303</v>
+        <v>77</v>
+      </c>
+      <c r="F127" s="20" t="s">
+        <v>562</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>306</v>
+        <v>77</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>563</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>308</v>
+        <v>77</v>
+      </c>
+      <c r="F129" s="20" t="s">
+        <v>564</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>310</v>
+        <v>77</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>565</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" s="10">
         <v>2</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C131" s="10"/>
       <c r="D131" s="11">
         <v>23</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" s="10">
         <v>2</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C135" s="10"/>
       <c r="D135" s="11">
         <v>24</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" s="1">
         <v>3</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>3</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" s="1">
         <v>4</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="1">
         <v>4</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B142" s="1">
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>335</v>
+        <v>77</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" s="1">
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>338</v>
+        <v>77</v>
+      </c>
+      <c r="F143" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>340</v>
+        <v>77</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>568</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10">
         <v>2</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C145" s="10"/>
       <c r="D145" s="11">
         <v>25</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B146" s="1">
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B147" s="1">
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" s="1">
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>348</v>
+        <v>77</v>
+      </c>
+      <c r="F148" s="20" t="s">
+        <v>569</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B149" s="1">
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>350</v>
+        <v>77</v>
+      </c>
+      <c r="F149" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>353</v>
+        <v>77</v>
+      </c>
+      <c r="F150" s="20" t="s">
+        <v>571</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" s="10">
         <v>2</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C151" s="10"/>
       <c r="D151" s="11">
         <v>26</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B153" s="1">
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="G154" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B155" s="1">
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B156" s="1">
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B157" s="1">
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" s="4">
         <v>1</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" s="10">
         <v>2</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C159" s="10"/>
       <c r="D159" s="11">
         <v>27</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B160" s="1">
         <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B161" s="1">
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B162" s="1">
         <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>379</v>
+        <v>77</v>
+      </c>
+      <c r="F162" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" s="1">
         <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>382</v>
+        <v>77</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>573</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B164" s="1">
         <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>384</v>
+        <v>77</v>
+      </c>
+      <c r="F164" s="20" t="s">
+        <v>574</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" s="10">
         <v>2</v>
       </c>
-      <c r="C165" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C165" s="10"/>
       <c r="D165" s="11">
         <v>28</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B166" s="1">
         <v>3</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5795,1737 +5755,1717 @@
         <v>3</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>390</v>
+        <v>77</v>
+      </c>
+      <c r="F168" s="20" t="s">
+        <v>575</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B170" s="1">
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" s="10">
         <v>2</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C171" s="10"/>
       <c r="D171" s="11">
         <v>29</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="187" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B172" s="1">
         <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B173" s="1">
         <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" s="4">
         <v>1</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" s="10">
         <v>2</v>
       </c>
-      <c r="C175" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C175" s="10"/>
       <c r="D175" s="11">
         <v>30</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B176" s="1">
         <v>3</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B177" s="1">
         <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B178" s="1">
         <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B179" s="1">
         <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B180" s="1">
         <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>414</v>
+        <v>77</v>
+      </c>
+      <c r="F180" s="20" t="s">
+        <v>576</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" s="10">
         <v>2</v>
       </c>
-      <c r="C181" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C181" s="10"/>
       <c r="D181" s="11">
         <v>31</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B182" s="1">
         <v>3</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B183" s="1">
         <v>3</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B184" s="1">
         <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" s="10">
         <v>2</v>
       </c>
-      <c r="C185" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C185" s="10"/>
       <c r="D185" s="11">
         <v>32</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186" s="1">
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B187" s="1">
         <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B188" s="1">
         <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B189" s="1">
         <v>3</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>433</v>
+        <v>77</v>
+      </c>
+      <c r="F189" s="20" t="s">
+        <v>577</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" s="10">
         <v>2</v>
       </c>
-      <c r="C190" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C190" s="10"/>
       <c r="D190" s="11">
         <v>33</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B191" s="1">
         <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B193" s="1">
         <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="1">
         <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>443</v>
+        <v>77</v>
+      </c>
+      <c r="F194" s="20" t="s">
+        <v>578</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" s="4">
         <v>1</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" s="10">
         <v>2</v>
       </c>
-      <c r="C196" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C196" s="10"/>
       <c r="D196" s="11">
         <v>34</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="1">
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <v>3</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="1">
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" s="1">
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" s="1">
         <v>4</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B202" s="1">
         <v>4</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" s="10">
         <v>2</v>
       </c>
-      <c r="C204" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C204" s="10"/>
       <c r="D204" s="11">
         <v>35</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
         <v>3</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B208" s="1">
         <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="G208" s="16" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B209" s="1">
         <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B211" s="1">
         <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B212" s="1">
         <v>4</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" s="4">
         <v>1</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" s="10">
         <v>2</v>
       </c>
-      <c r="C214" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C214" s="10"/>
       <c r="D214" s="11">
         <v>36</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B215" s="1">
         <v>3</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B216" s="1">
         <v>3</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B217" s="1">
         <v>3</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B218" s="1">
         <v>3</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B219" s="1">
         <v>3</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B220" s="1">
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B221" s="1">
         <v>4</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B222" s="1">
         <v>4</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B223" s="1">
         <v>3</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B224" s="1">
         <v>3</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>508</v>
+        <v>77</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" s="10">
         <v>2</v>
       </c>
-      <c r="C225" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="C225" s="10"/>
       <c r="D225" s="11">
         <v>37</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B226" s="1">
         <v>3</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <v>3</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B228" s="1">
         <v>4</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>516</v>
+        <v>484</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B229" s="1">
         <v>4</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B230" s="1">
         <v>4</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B231" s="1">
         <v>4</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>520</v>
+        <v>488</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B233" s="1">
         <v>4</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B234" s="1">
         <v>4</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B235" s="1">
         <v>3</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B236" s="1">
         <v>4</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B237" s="1">
         <v>4</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>513</v>
+        <v>481</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B238" s="1">
         <v>4</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B239" s="1">
         <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>532</v>
+        <v>77</v>
+      </c>
+      <c r="F239" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" s="10">
         <v>2</v>
       </c>
-      <c r="C240" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="C240" s="10"/>
       <c r="D240" s="11" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="F240" s="12"/>
       <c r="G240" s="12"/>
     </row>
     <row r="241" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B241" s="1">
         <v>3</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="3" t="s">
-        <v>536</v>
+      <c r="F241" s="20" t="s">
+        <v>581</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B242" s="1">
         <v>3</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="3" t="s">
-        <v>539</v>
+      <c r="F242" s="20" t="s">
+        <v>582</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B243" s="1">
         <v>3</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="3" t="s">
-        <v>542</v>
+      <c r="F243" s="20" t="s">
+        <v>583</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B244" s="1">
         <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="3" t="s">
-        <v>545</v>
+      <c r="F244" s="20" t="s">
+        <v>584</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" s="10">
         <v>2</v>
       </c>
-      <c r="C245" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C245" s="10"/>
       <c r="D245" s="11">
         <v>39</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B246" s="1">
         <v>3</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B247" s="1">
         <v>3</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B248" s="1">
         <v>3</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B249" s="1">
         <v>3</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="G249" s="17" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" s="10">
         <v>2</v>
       </c>
-      <c r="C250" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="C250" s="10"/>
       <c r="D250" s="11">
         <v>40</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B251" s="1">
         <v>3</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B252" s="1">
         <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B253" s="1">
         <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B254" s="1">
         <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="4">
         <v>1</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="B256" s="10">
         <v>2</v>
       </c>
-      <c r="C256" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="C256" s="10"/>
       <c r="D256" s="11" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="F256" s="12"/>
       <c r="G256" s="12"/>
     </row>
     <row r="257" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B257" s="1">
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>573</v>
+        <v>77</v>
+      </c>
+      <c r="F257" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B258" s="1">
         <v>3</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>576</v>
+        <v>77</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>586</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="B259" s="10">
         <v>2</v>
       </c>
-      <c r="C259" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="C259" s="10"/>
       <c r="D259" s="11" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="F259" s="12"/>
       <c r="G259" s="12"/>
     </row>
     <row r="260" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B260" s="1">
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>580</v>
+        <v>77</v>
+      </c>
+      <c r="F260" s="20" t="s">
+        <v>587</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H260" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="R"/>
+        <filter val="S,R"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7543,15 +7483,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -7569,29 +7509,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -7612,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7630,18 +7570,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/tools/excel/anssi/anssi-guide-hygiene-detail_new.xlsx
+++ b/tools/excel/anssi/anssi-guide-hygiene-detail_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/anssi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B95977-BA32-C944-9AE6-2F0E4BB1D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009514FF-BE18-3249-83E5-5C6615B07375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2515,7 +2515,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2544,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
